--- a/biology/Botanique/Les_Jardins_d'Étretat/Les_Jardins_d'Étretat.xlsx
+++ b/biology/Botanique/Les_Jardins_d'Étretat/Les_Jardins_d'Étretat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Jardins_d%27%C3%89tretat</t>
+          <t>Les_Jardins_d'Étretat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Jardins d'Étretat sont un jardin néo-futuriste[1] avec des « sculptures vivantes[2] » perché sur la falaise d'amont d'Étretat, en Normandie, en France. Il entoure une villa qui a appartenu à Madame Thébault, une actrice parisienne[3], au début du XXe siècle. Plus d'un siècle après, le jardin a été restauré par une équipe menée par l'architecte-paysagiste russe Alexander Grivko, de la société britannique de conception et d'aménagement paysager IL Nature[4], qui s'est inspiré de la flore de la côte normande[5]. Il a été rouvert au public en 2017[6].
-Grivko a reçu le 2019/2020 European Garden Award dans la catégorie « Meilleure restauration ou développement d'un parc ou jardin historique » pour son travail[7]. Les jardins d'Étretat sont labellisés Jardin remarquable et sont classés parmi les « grands jardins du monde » et ont également reçu deux étoiles du Michelin Guide Vert[8].
+Les Jardins d'Étretat sont un jardin néo-futuriste avec des « sculptures vivantes » perché sur la falaise d'amont d'Étretat, en Normandie, en France. Il entoure une villa qui a appartenu à Madame Thébault, une actrice parisienne, au début du XXe siècle. Plus d'un siècle après, le jardin a été restauré par une équipe menée par l'architecte-paysagiste russe Alexander Grivko, de la société britannique de conception et d'aménagement paysager IL Nature, qui s'est inspiré de la flore de la côte normande. Il a été rouvert au public en 2017.
+Grivko a reçu le 2019/2020 European Garden Award dans la catégorie « Meilleure restauration ou développement d'un parc ou jardin historique » pour son travail. Les jardins d'Étretat sont labellisés Jardin remarquable et sont classés parmi les « grands jardins du monde » et ont également reçu deux étoiles du Michelin Guide Vert.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Jardins_d%27%C3%89tretat</t>
+          <t>Les_Jardins_d'Étretat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1905, Mme Thébault devient propriétaire d'une maison Belle Époque construite sur la falaise d'Amont à Étretat, au cœur d'un parc de 4 000 mètres carrés. Elle nomme la maison « Villa Roxelane », une référence à Hurrem Sultan, dite Roxelane, l'épouse légendaire du sultan Soliman le Magnifique, un rôle joué par Thébault qui lui a fait gagner la célébrité en tant qu'actrice. Elle fit appel au paysagiste local Auguste Lecanu pour aménager le terrain. Certains des arbres qui furent ensuite été plantés, ont maintenant plus de cent ans et sont bien conservés.
-Mme Thébault était amie avec le peintre français Claude Monet, qui venait régulièrement dans les jardins pour peindre. Inspiré par les falaises d'Étretat, Monet a créé sa série de peintures « Les Falaises à Étretat », tout en inspirant Thébault pour créer un jardin d'avant-garde au sommet de la falaise[9]. Une sculpture de vigne sur la terrasse du jardin rend hommage à l'influence de Monet. Elle représente le peintre travaillant sur sa peinture « Coucher de soleil à Etretat »[10].
-La majorité des éléments historiques du jardin ont été recréés lors de la restauration, qui a commencé en 2015. Alexander Grivko, avec Natalia Bogomolova, Marcel Gherghelejiu, Vera Kalashnik, Valeriya Kanavina, Alina Trunova, Inna Korneeva et Elena Popova, ont mis en œuvre des méthodes empruntées à André Le Nôtre, le jardinier royal des jardins de Versailles[11]. Grivko et son équipe ont mis 24 mois pour acquérir le terrain, négocier avec la mairie pour acheter 3 000 m2 supplémentaires, construire des centaines de mètres de murs bas, importer près de 1 000 tonnes de terre, tracer deux kilomètres de chemins de gravier et planter plus de  30 000 mètres de conifères[11].
+Mme Thébault était amie avec le peintre français Claude Monet, qui venait régulièrement dans les jardins pour peindre. Inspiré par les falaises d'Étretat, Monet a créé sa série de peintures « Les Falaises à Étretat », tout en inspirant Thébault pour créer un jardin d'avant-garde au sommet de la falaise. Une sculpture de vigne sur la terrasse du jardin rend hommage à l'influence de Monet. Elle représente le peintre travaillant sur sa peinture « Coucher de soleil à Etretat ».
+La majorité des éléments historiques du jardin ont été recréés lors de la restauration, qui a commencé en 2015. Alexander Grivko, avec Natalia Bogomolova, Marcel Gherghelejiu, Vera Kalashnik, Valeriya Kanavina, Alina Trunova, Inna Korneeva et Elena Popova, ont mis en œuvre des méthodes empruntées à André Le Nôtre, le jardinier royal des jardins de Versailles. Grivko et son équipe ont mis 24 mois pour acquérir le terrain, négocier avec la mairie pour acheter 3 000 m2 supplémentaires, construire des centaines de mètres de murs bas, importer près de 1 000 tonnes de terre, tracer deux kilomètres de chemins de gravier et planter plus de  30 000 mètres de conifères.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Jardins_d%27%C3%89tretat</t>
+          <t>Les_Jardins_d'Étretat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,22 +562,237 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jardin Avatar
-Le jardin Avatar est le premier jardin après l'entrée. Il a une installation artistique appelée Clockwork Forest, qui a été créée par Greyworld (en), un collectif d'artistes basé à Londres qui crée de l'art, de la sculpture et des installations interactives activées par le public[12]. Les visiteurs qui tournent la clé entendent une mélodie, « comme s'ils donnaient vie à une couche supplémentaire de son existant organiquement dans l'environnement naturel[13] ».
-Il y a aussi un grand coquillage, fait d'une membrane en plastique, par l'artiste Alyona Kogan[14] de Saint-Pétersbourg, en Russie. Un gigantesque tronc d'un vieux chêne a servi de matériau à l'installation Platteau une grande assiette à manger dans la forêt[15], du sculpteur allemand Thomas Rösler.
-Jardin Émotions
-Le jardin Émotions a été calqué sur la première ferme ostréicole française située au pied des falaises d'Étretat et fondée par la reine Marie-Antoinette[16]. La ferme est rappelée par des arbustes de Buxus sempervirens (buis) et d'Enkianthus qui ont été façonnés pour représenter des coquilles de mollusques[17]. Le jardin contient l'installation d'art Gouttes de Pluie de l'artiste espagnol Samuel Salcedo : sept grands visages représentant diverses émotions humaines[18]. Les faces sont faites d'un mélange de résine polyester et de poudre d'aluminium[16].
-Jardin Impressions
-Le jardin Impressions ouvre un panorama sur la Manche et les falaises d'Étretat, qui ont inspiré par le passé, outre Monet, différents autres artistes : Jean-Baptiste-Camille Corot, Eugène Delacroix, Édouard Manet et Vasily Polenov[19].
-Jardin d'Aval
-Le jardin d'Aval abrite une collection d'orchidées à la mémoire de Thébault[20]. Dans les archives accompagnant l'achat de la maison, la collection d'orchidées de Thébault a été détaillée dans les papiers de son jardinier, Auguste Lecanu[3].
-Le jardin d'Aval a été inspiré par Alice au pays des merveilles et présente des arches en if, qui imitent les arches en pierre sur le littoral[3]. Il y a des installations de Thomas Rösler, un ensemble de meubles de 10 mètres de long en chêne massif, et The Tree Hugger Project, des sculptures faites de branches séchées et de morceaux de bois qui représentent « cent façons d'embrasser un arbre sans être ridicule »[20].
-Jardin d'Amont
-Le jardin d'Amont était situé au sommet de la falaise d'Amont, qui a donné son nom au jardin. Le jardin est la partie la plus élevée des jardins d'Étretat, où les topiaires sont disposés en gradins échelonnés qui progressent vers le haut de la colline, offrant une vue panoramique sur le jardin et le paysage au-delà[3]. Les plantes se métamorphosant en falaises et se confondant avec le rivage de l'horizon imitent les couches rocheuses des falaises blanches de la côte d'Albâtre[21].
-Jardin Zen
-Le jardin Zen, qui présente des rhododendrons blancs[3], incarne une coexistence harmonieuse de l'homme et de la nature, ne cultivant que des plantes à fleurs blanches et disposant d'une installation audio[22]. Il y a une passerelle en bois, conduisant les visiteurs devant une grande corniche de bambou[23]. Une installation de l'artiste russe Sergey Katran présente un éventail de sculptures en terre cuite en forme d'ondes sonores du mot «art» prononcé dans différentes langues[24].
-Jardin La Manche
-Le jardin La Manche est situé au centre des jardins d'Étretat[25]. C'est quelque chose d'un labyrinthe avec de grandes plantes taillées reflétant les vagues déferlantes en dessous - même la couleur argentée des feuilles est un clin d'œil à l'océan[3]. Le jardin offre une vue panoramique sur la Manche et les falaises[19].
+          <t>Jardin Avatar</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin Avatar est le premier jardin après l'entrée. Il a une installation artistique appelée Clockwork Forest, qui a été créée par Greyworld (en), un collectif d'artistes basé à Londres qui crée de l'art, de la sculpture et des installations interactives activées par le public. Les visiteurs qui tournent la clé entendent une mélodie, « comme s'ils donnaient vie à une couche supplémentaire de son existant organiquement dans l'environnement naturel ».
+Il y a aussi un grand coquillage, fait d'une membrane en plastique, par l'artiste Alyona Kogan de Saint-Pétersbourg, en Russie. Un gigantesque tronc d'un vieux chêne a servi de matériau à l'installation Platteau une grande assiette à manger dans la forêt, du sculpteur allemand Thomas Rösler.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_Jardins_d'Étretat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Jardins_d%27%C3%89tretat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les jardins</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jardin Émotions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin Émotions a été calqué sur la première ferme ostréicole française située au pied des falaises d'Étretat et fondée par la reine Marie-Antoinette. La ferme est rappelée par des arbustes de Buxus sempervirens (buis) et d'Enkianthus qui ont été façonnés pour représenter des coquilles de mollusques. Le jardin contient l'installation d'art Gouttes de Pluie de l'artiste espagnol Samuel Salcedo : sept grands visages représentant diverses émotions humaines. Les faces sont faites d'un mélange de résine polyester et de poudre d'aluminium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_Jardins_d'Étretat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Jardins_d%27%C3%89tretat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les jardins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Jardin Impressions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin Impressions ouvre un panorama sur la Manche et les falaises d'Étretat, qui ont inspiré par le passé, outre Monet, différents autres artistes : Jean-Baptiste-Camille Corot, Eugène Delacroix, Édouard Manet et Vasily Polenov.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Jardins_d'Étretat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Jardins_d%27%C3%89tretat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les jardins</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jardin d'Aval</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin d'Aval abrite une collection d'orchidées à la mémoire de Thébault. Dans les archives accompagnant l'achat de la maison, la collection d'orchidées de Thébault a été détaillée dans les papiers de son jardinier, Auguste Lecanu.
+Le jardin d'Aval a été inspiré par Alice au pays des merveilles et présente des arches en if, qui imitent les arches en pierre sur le littoral. Il y a des installations de Thomas Rösler, un ensemble de meubles de 10 mètres de long en chêne massif, et The Tree Hugger Project, des sculptures faites de branches séchées et de morceaux de bois qui représentent « cent façons d'embrasser un arbre sans être ridicule ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Jardins_d'Étretat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Jardins_d%27%C3%89tretat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les jardins</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jardin d'Amont</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin d'Amont était situé au sommet de la falaise d'Amont, qui a donné son nom au jardin. Le jardin est la partie la plus élevée des jardins d'Étretat, où les topiaires sont disposés en gradins échelonnés qui progressent vers le haut de la colline, offrant une vue panoramique sur le jardin et le paysage au-delà. Les plantes se métamorphosant en falaises et se confondant avec le rivage de l'horizon imitent les couches rocheuses des falaises blanches de la côte d'Albâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Jardins_d'Étretat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Jardins_d%27%C3%89tretat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les jardins</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jardin Zen</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin Zen, qui présente des rhododendrons blancs, incarne une coexistence harmonieuse de l'homme et de la nature, ne cultivant que des plantes à fleurs blanches et disposant d'une installation audio. Il y a une passerelle en bois, conduisant les visiteurs devant une grande corniche de bambou. Une installation de l'artiste russe Sergey Katran présente un éventail de sculptures en terre cuite en forme d'ondes sonores du mot «art» prononcé dans différentes langues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Jardins_d'Étretat</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Jardins_d%27%C3%89tretat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les jardins</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Jardin La Manche</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin La Manche est situé au centre des jardins d'Étretat. C'est quelque chose d'un labyrinthe avec de grandes plantes taillées reflétant les vagues déferlantes en dessous - même la couleur argentée des feuilles est un clin d'œil à l'océan. Le jardin offre une vue panoramique sur la Manche et les falaises.
 </t>
         </is>
       </c>
